--- a/menu_files/admin_weekly_orderSheet_Naas_Community_College.xlsx
+++ b/menu_files/admin_weekly_orderSheet_Naas_Community_College.xlsx
@@ -13,8 +13,8 @@
     <sheet name="4th - Monday" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="5th - Monday" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="6th - Monday" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Staff Monday" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Monday Class Totals" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Monday Class Totals" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Staff Monday" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Monday Total" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="1st - Tuesday" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="2nd - Tuesday" sheetId="11" state="visible" r:id="rId11"/>
@@ -22,8 +22,8 @@
     <sheet name="4th - Tuesday" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="5th - Tuesday" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="6th - Tuesday" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Staff Tuesday" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Tuesday Class Totals" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Tuesday Class Totals" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Staff Tuesday" sheetId="17" state="visible" r:id="rId17"/>
     <sheet name="Tuesday Total" sheetId="18" state="visible" r:id="rId18"/>
     <sheet name="1st - Wednesday" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="2nd - Wednesday" sheetId="20" state="visible" r:id="rId20"/>
@@ -31,8 +31,8 @@
     <sheet name="4th - Wednesday" sheetId="22" state="visible" r:id="rId22"/>
     <sheet name="5th - Wednesday" sheetId="23" state="visible" r:id="rId23"/>
     <sheet name="6th - Wednesday" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Staff Wednesday" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Wednesday Class Totals" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Wednesday Class Totals" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Staff Wednesday" sheetId="26" state="visible" r:id="rId26"/>
     <sheet name="Wednesday Total" sheetId="27" state="visible" r:id="rId27"/>
     <sheet name="1st - Thursday" sheetId="28" state="visible" r:id="rId28"/>
     <sheet name="2nd - Thursday" sheetId="29" state="visible" r:id="rId29"/>
@@ -40,8 +40,8 @@
     <sheet name="4th - Thursday" sheetId="31" state="visible" r:id="rId31"/>
     <sheet name="5th - Thursday" sheetId="32" state="visible" r:id="rId32"/>
     <sheet name="6th - Thursday" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="Staff Thursday" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="Thursday Class Totals" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="Thursday Class Totals" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="Staff Thursday" sheetId="35" state="visible" r:id="rId35"/>
     <sheet name="Thursday Total" sheetId="36" state="visible" r:id="rId36"/>
     <sheet name="1st - Friday" sheetId="37" state="visible" r:id="rId37"/>
     <sheet name="2nd - Friday" sheetId="38" state="visible" r:id="rId38"/>
@@ -49,8 +49,8 @@
     <sheet name="4th - Friday" sheetId="40" state="visible" r:id="rId40"/>
     <sheet name="5th - Friday" sheetId="41" state="visible" r:id="rId41"/>
     <sheet name="6th - Friday" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="Staff Friday" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="Friday Class Totals" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="Friday Class Totals" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="Staff Friday" sheetId="44" state="visible" r:id="rId44"/>
     <sheet name="Friday Total" sheetId="45" state="visible" r:id="rId45"/>
   </sheets>
   <definedNames/>
@@ -1884,11 +1884,555 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="0000B0F0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Class Totals for Tuesday (Naas Community College-14)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Class Year</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Item</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Total Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Chop Suey with Egg Fried Rice</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Oven baked potato cubes</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Essence Strawberry and Raspberry</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Oven baked crispy potato wedges</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Total for 1st</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="n"/>
+      <c r="C12" s="5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Chop Suey with Egg Fried Rice</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Total for 3rd</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Chop Suey with Egg Fried Rice</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Total for 2nd</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Chop Suey with Egg Fried Rice</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>Total for 4th</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="n"/>
+      <c r="C31" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Chop Suey with Egg Fried Rice</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>Total for 6th</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>Total for 5th</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="n"/>
+      <c r="C36" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <tabColor rgb="00CCCCCC"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1922,64 +2466,6 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="0000B0F0"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Class Totals for Tuesday (Naas Community College-14)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Class Year</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
           <t>Menu Item</t>
         </is>
       </c>
@@ -1992,924 +2478,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Catherine Rojas</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Donnacha Fitzsimons</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Chop Suey with Egg Fried Rice</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Noah Molyneaux</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>Ben McCormack</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Anna Vaughan</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Oven baked potato cubes</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>Olaf Pala</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>Adam Szczepkowski</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>Pola Szlachta</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Essence Strawberry and Raspberry</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>Pola Szlachta</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>Jade Delahunt</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>Wiktor Szadzinski</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Chop Suey with Egg Fried Rice</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>Riley Mulvaney</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>Emmie Murphy</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>John Marco Diamat</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>Oven baked crispy potato wedges</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>Rebecca Rattigan</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>Jamie Higgins</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>Total for 1st</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="5" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>Jake Coughlan</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>Nathan Kozik</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>Felipe Barreto</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>Ona Houlihan-Canestro</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>Oliwier Wasik</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>Harry Keegan</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Chop Suey with Egg Fried Rice</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>Total for 3rd</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="n"/>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>Leo Carragher</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D27" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B28" s="4" t="inlineStr">
-        <is>
-          <t>Rian Munro</t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D28" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B29" s="4" t="inlineStr">
-        <is>
-          <t>Lexi Reeves</t>
-        </is>
-      </c>
-      <c r="C29" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D29" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>Matthew Moran</t>
-        </is>
-      </c>
-      <c r="C30" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D30" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B31" s="4" t="inlineStr">
-        <is>
-          <t>Benjamin Howell</t>
-        </is>
-      </c>
-      <c r="C31" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Chop Suey with Egg Fried Rice</t>
-        </is>
-      </c>
-      <c r="D31" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B32" s="4" t="inlineStr">
-        <is>
-          <t>Lucy Hoban</t>
-        </is>
-      </c>
-      <c r="C32" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D32" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>Sadbh Doyle</t>
-        </is>
-      </c>
-      <c r="C33" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Chop Suey with Egg Fried Rice</t>
-        </is>
-      </c>
-      <c r="D33" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>EibhlIn Humphreys</t>
-        </is>
-      </c>
-      <c r="C34" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D34" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>emma coburn</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B36" s="4" t="inlineStr">
-        <is>
-          <t>Rachael Roberts</t>
-        </is>
-      </c>
-      <c r="C36" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D36" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>sophie morris</t>
-        </is>
-      </c>
-      <c r="C37" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Chop Suey with Egg Fried Rice</t>
-        </is>
-      </c>
-      <c r="D37" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>Total for 2nd</t>
-        </is>
-      </c>
-      <c r="B38" s="4" t="n"/>
-      <c r="C38" s="4" t="n"/>
-      <c r="D38" s="5" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>Odhran Davy</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Chop Suey with Egg Fried Rice</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>Luke Reeves</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D40" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B41" s="4" t="inlineStr">
-        <is>
-          <t>Luke Reeves</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t>Ross Chapman</t>
-        </is>
-      </c>
-      <c r="C42" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D42" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B43" s="4" t="inlineStr">
-        <is>
-          <t>Patryk Zawikowski</t>
-        </is>
-      </c>
-      <c r="C43" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D43" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t>Georgia Condron</t>
-        </is>
-      </c>
-      <c r="C44" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D44" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="inlineStr">
-        <is>
-          <t>Total for 4th</t>
-        </is>
-      </c>
-      <c r="B45" s="4" t="n"/>
-      <c r="C45" s="4" t="n"/>
-      <c r="D45" s="5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
-        <is>
-          <t>6th</t>
-        </is>
-      </c>
-      <c r="B46" s="4" t="inlineStr">
-        <is>
-          <t>Charlie munro</t>
-        </is>
-      </c>
-      <c r="C46" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Chop Suey with Egg Fried Rice</t>
-        </is>
-      </c>
-      <c r="D46" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="inlineStr">
-        <is>
-          <t>6th</t>
-        </is>
-      </c>
-      <c r="B47" s="4" t="inlineStr">
-        <is>
-          <t>Jesse Redican</t>
-        </is>
-      </c>
-      <c r="C47" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D47" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="inlineStr">
-        <is>
-          <t>Total for 6th</t>
-        </is>
-      </c>
-      <c r="B48" s="4" t="n"/>
-      <c r="C48" s="4" t="n"/>
-      <c r="D48" s="5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="inlineStr">
-        <is>
-          <t>5th</t>
-        </is>
-      </c>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>Aaron Wilson</t>
-        </is>
-      </c>
-      <c r="C49" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D49" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>Total for 5th</t>
-        </is>
-      </c>
-      <c r="B50" s="4" t="n"/>
-      <c r="C50" s="4" t="n"/>
-      <c r="D50" s="5" t="n">
-        <v>1</v>
-      </c>
+          <t>No orders</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2937,7 +2516,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Chef Day Total for Tuesday of Naas Community College-14 (Secondary)</t>
+          <t>Day Total for Tuesday (Naas Community College-14)</t>
         </is>
       </c>
     </row>
@@ -4687,11 +4266,555 @@
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="0000B0F0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Class Totals for Wednesday (Naas Community College-14)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Class Year</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Item</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Total Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Oven baked crispy potato wedges</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Essence Strawberry and Raspberry</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Meat Free Meatballs in Tomato and Basil Sauce</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Total for 1st</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="n"/>
+      <c r="C12" s="5" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Total for 3rd</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Sweet Chiili Chicken Wrap</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Caesar Salad with Homemade Brown Bread</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Oven baked potato cubes</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>Essence Lemon and Lime</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>Popcorn</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>Total for 2nd</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="5" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>Total for 6th</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="n"/>
+      <c r="C32" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>Total for 5th</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>Total for Unknown</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="n"/>
+      <c r="C36" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <tabColor rgb="00CCCCCC"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4725,64 +4848,6 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="0000B0F0"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D65"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Class Totals for Wednesday (Naas Community College-14)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Class Year</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
           <t>Menu Item</t>
         </is>
       </c>
@@ -4795,1224 +4860,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Catherine Rojas</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Donnacha Fitzsimons</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Noah Molyneaux</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>Ben McCormack</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Olaf Pala</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>Adam Szczepkowski</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>Wiktor Szadzinski</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>Emmie Murphy</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>John Marco Diamat</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>Oven baked crispy potato wedges</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>Rebecca Rattigan</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>Jamie Higgins</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>Jaden Gilbride</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>Daniel Burkett</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>Arian Pluta Misini</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>Jake Teeling</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>Jake Teeling</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>Essence Strawberry and Raspberry</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>Riley Mulvaney</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>Luke McCann</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>Meat Free Meatballs in Tomato and Basil Sauce</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>Luke McCann</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>Essence Strawberry and Raspberry</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>Harry Kelly</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>Total for 1st</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="n"/>
-      <c r="C23" s="4" t="n"/>
-      <c r="D23" s="5" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>Jake Coughlan</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>Nathan Kozik</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>Felipe Barreto</t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="inlineStr">
-        <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
-        </is>
-      </c>
-      <c r="D26" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>Ona Houlihan-Canestro</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D27" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B28" s="4" t="inlineStr">
-        <is>
-          <t>Oliwier Wasik</t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D28" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B29" s="4" t="inlineStr">
-        <is>
-          <t>Harry Keegan</t>
-        </is>
-      </c>
-      <c r="C29" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D29" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>Callum casey</t>
-        </is>
-      </c>
-      <c r="C30" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D30" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>Total for 3rd</t>
-        </is>
-      </c>
-      <c r="B31" s="4" t="n"/>
-      <c r="C31" s="4" t="n"/>
-      <c r="D31" s="5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B32" s="4" t="inlineStr">
-        <is>
-          <t>Leo Carragher</t>
-        </is>
-      </c>
-      <c r="C32" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D32" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>Leo Carragher</t>
-        </is>
-      </c>
-      <c r="C33" s="4" t="inlineStr">
-        <is>
-          <t>Sweet Chiili Chicken Wrap</t>
-        </is>
-      </c>
-      <c r="D33" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>Rian Munro</t>
-        </is>
-      </c>
-      <c r="C34" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D34" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>Lexi Reeves</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B36" s="4" t="inlineStr">
-        <is>
-          <t>Matthew Moran</t>
-        </is>
-      </c>
-      <c r="C36" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D36" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>Benjamin Howell</t>
-        </is>
-      </c>
-      <c r="C37" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D37" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>Lucy Hoban</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D38" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>Sadbh Doyle</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>EibhlIn Humphreys</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D40" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B41" s="4" t="inlineStr">
-        <is>
-          <t>emma coburn</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Caesar Salad with Homemade Brown Bread</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t>Shonagh Purcell Tobin</t>
-        </is>
-      </c>
-      <c r="C42" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Caesar Salad with Homemade Brown Bread</t>
-        </is>
-      </c>
-      <c r="D42" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B43" s="4" t="inlineStr">
-        <is>
-          <t>Blanka Szulc</t>
-        </is>
-      </c>
-      <c r="C43" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D43" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t>Rachael Roberts</t>
-        </is>
-      </c>
-      <c r="C44" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D44" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B45" s="4" t="inlineStr">
-        <is>
-          <t>Ryan Crouch</t>
-        </is>
-      </c>
-      <c r="C45" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D45" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B46" s="4" t="inlineStr">
-        <is>
-          <t>sophie morris</t>
-        </is>
-      </c>
-      <c r="C46" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D46" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B47" s="4" t="inlineStr">
-        <is>
-          <t>Nadia Glod</t>
-        </is>
-      </c>
-      <c r="C47" s="4" t="inlineStr">
-        <is>
-          <t>Oven baked potato cubes</t>
-        </is>
-      </c>
-      <c r="D47" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B48" s="4" t="inlineStr">
-        <is>
-          <t>Nadia Glod</t>
-        </is>
-      </c>
-      <c r="C48" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D48" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>Stephany Gabrielly Pesqueira</t>
-        </is>
-      </c>
-      <c r="C49" s="4" t="inlineStr">
-        <is>
-          <t>Essence Lemon and Lime</t>
-        </is>
-      </c>
-      <c r="D49" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B50" s="4" t="inlineStr">
-        <is>
-          <t>Stephany Gabrielly Pesqueira</t>
-        </is>
-      </c>
-      <c r="C50" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D50" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B51" s="4" t="inlineStr">
-        <is>
-          <t>Fiona Mullen</t>
-        </is>
-      </c>
-      <c r="C51" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D51" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B52" s="4" t="inlineStr">
-        <is>
-          <t>Emma Warren</t>
-        </is>
-      </c>
-      <c r="C52" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D52" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B53" s="4" t="inlineStr">
-        <is>
-          <t>Oisin Conlan</t>
-        </is>
-      </c>
-      <c r="C53" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D53" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B54" s="4" t="inlineStr">
-        <is>
-          <t>Ryan O Connor</t>
-        </is>
-      </c>
-      <c r="C54" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D54" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B55" s="4" t="inlineStr">
-        <is>
-          <t>Amy Anson</t>
-        </is>
-      </c>
-      <c r="C55" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Caesar Salad with Homemade Brown Bread</t>
-        </is>
-      </c>
-      <c r="D55" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B56" s="4" t="inlineStr">
-        <is>
-          <t>Jessica Carey</t>
-        </is>
-      </c>
-      <c r="C56" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D56" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B57" s="4" t="inlineStr">
-        <is>
-          <t>Jessica Carey</t>
-        </is>
-      </c>
-      <c r="C57" s="4" t="inlineStr">
-        <is>
-          <t>Popcorn</t>
-        </is>
-      </c>
-      <c r="D57" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="3" t="inlineStr">
-        <is>
-          <t>Total for 2nd</t>
-        </is>
-      </c>
-      <c r="B58" s="4" t="n"/>
-      <c r="C58" s="4" t="n"/>
-      <c r="D58" s="5" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="3" t="inlineStr">
-        <is>
-          <t>6th</t>
-        </is>
-      </c>
-      <c r="B59" s="4" t="inlineStr">
-        <is>
-          <t>Charlie munro</t>
-        </is>
-      </c>
-      <c r="C59" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D59" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="inlineStr">
-        <is>
-          <t>6th</t>
-        </is>
-      </c>
-      <c r="B60" s="4" t="inlineStr">
-        <is>
-          <t>Jesse Redican</t>
-        </is>
-      </c>
-      <c r="C60" s="4" t="inlineStr">
-        <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
-        </is>
-      </c>
-      <c r="D60" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="inlineStr">
-        <is>
-          <t>Total for 6th</t>
-        </is>
-      </c>
-      <c r="B61" s="4" t="n"/>
-      <c r="C61" s="4" t="n"/>
-      <c r="D61" s="5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="3" t="inlineStr">
-        <is>
-          <t>5th</t>
-        </is>
-      </c>
-      <c r="B62" s="4" t="inlineStr">
-        <is>
-          <t>Aaron Wilson</t>
-        </is>
-      </c>
-      <c r="C62" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D62" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="inlineStr">
-        <is>
-          <t>Total for 5th</t>
-        </is>
-      </c>
-      <c r="B63" s="4" t="n"/>
-      <c r="C63" s="4" t="n"/>
-      <c r="D63" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="3" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B64" s="4" t="inlineStr">
-        <is>
-          <t>Ben Cahalan</t>
-        </is>
-      </c>
-      <c r="C64" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D64" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="inlineStr">
-        <is>
-          <t>Total for Unknown</t>
-        </is>
-      </c>
-      <c r="B65" s="4" t="n"/>
-      <c r="C65" s="4" t="n"/>
-      <c r="D65" s="5" t="n">
-        <v>1</v>
-      </c>
+          <t>No orders</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6040,7 +4898,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Chef Day Total for Wednesday of Naas Community College-14 (Secondary)</t>
+          <t>Day Total for Wednesday (Naas Community College-14)</t>
         </is>
       </c>
     </row>
@@ -7865,11 +6723,645 @@
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="0000B0F0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Class Totals for Thursday (Naas Community College-14)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Class Year</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Item</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Total Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Oven baked crispy potato wedges</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Essence Strawberry and Raspberry</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Oven baked potato cubes</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Sweet Chiili Chicken Wrap</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Total for 1st</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="5" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Sweet Chiili Chicken Wrap</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>Total for 3rd</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="n"/>
+      <c r="C22" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>Essence Lemon and Lime</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Meat Free Meatballs in Tomato and Basil Sauce</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Popcorn</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>Total for 2nd</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="5" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>Popcorn</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>Total for 4th</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="n"/>
+      <c r="C37" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>Total for 6th</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="n"/>
+      <c r="C40" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>Total for 5th</t>
+        </is>
+      </c>
+      <c r="B42" s="4" t="n"/>
+      <c r="C42" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A22:B22"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <tabColor rgb="00CCCCCC"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7903,64 +7395,6 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="0000B0F0"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D71"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Class Totals for Thursday (Naas Community College-14)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Class Year</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
           <t>Menu Item</t>
         </is>
       </c>
@@ -7973,1344 +7407,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Catherine Rojas</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Donnacha Fitzsimons</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Noah Molyneaux</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>Ben McCormack</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Anna Vaughan</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Oven baked crispy potato wedges</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>Olaf Pala</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>Adam Szczepkowski</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>Jade Delahunt</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>Wiktor Szadzinski</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>Emmie Murphy</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>John Marco Diamat</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>Rebecca Rattigan</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>Jaden Gilbride</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>Arian Pluta Misini</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>Jake Teeling</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>Jake Teeling</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>Essence Strawberry and Raspberry</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>Harry Kelly</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>Riley Mulvaney</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>Rilé Murphy</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>Cian O Brien</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>Cian O Brien</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>Essence Strawberry and Raspberry</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>Sean Ryan</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>Sean Ryan</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>Oven baked potato cubes</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>Pola Szlachta</t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="inlineStr">
-        <is>
-          <t>Sweet Chiili Chicken Wrap</t>
-        </is>
-      </c>
-      <c r="D26" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>Jamie Higgins</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D27" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B28" s="4" t="inlineStr">
-        <is>
-          <t>Kayla Leahy</t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D28" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>Total for 1st</t>
-        </is>
-      </c>
-      <c r="B29" s="4" t="n"/>
-      <c r="C29" s="4" t="n"/>
-      <c r="D29" s="5" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>Jake Coughlan</t>
-        </is>
-      </c>
-      <c r="C30" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D30" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B31" s="4" t="inlineStr">
-        <is>
-          <t>Nathan Kozik</t>
-        </is>
-      </c>
-      <c r="C31" s="4" t="inlineStr">
-        <is>
-          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
-        </is>
-      </c>
-      <c r="D31" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B32" s="4" t="inlineStr">
-        <is>
-          <t>Felipe Barreto</t>
-        </is>
-      </c>
-      <c r="C32" s="4" t="inlineStr">
-        <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
-        </is>
-      </c>
-      <c r="D32" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>Ona Houlihan-Canestro</t>
-        </is>
-      </c>
-      <c r="C33" s="4" t="inlineStr">
-        <is>
-          <t>Sweet Chiili Chicken Wrap</t>
-        </is>
-      </c>
-      <c r="D33" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>Oliwier Wasik</t>
-        </is>
-      </c>
-      <c r="C34" s="4" t="inlineStr">
-        <is>
-          <t>Sweet Chiili Chicken Wrap</t>
-        </is>
-      </c>
-      <c r="D34" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>Harry Keegan</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B36" s="4" t="inlineStr">
-        <is>
-          <t>Callum casey</t>
-        </is>
-      </c>
-      <c r="C36" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D36" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>Total for 3rd</t>
-        </is>
-      </c>
-      <c r="B37" s="4" t="n"/>
-      <c r="C37" s="4" t="n"/>
-      <c r="D37" s="5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>Leo Carragher</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D38" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>Rian Munro</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>Rian Munro</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>Essence Lemon and Lime</t>
-        </is>
-      </c>
-      <c r="D40" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B41" s="4" t="inlineStr">
-        <is>
-          <t>Lexi Reeves</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>Meat Free Meatballs in Tomato and Basil Sauce</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t>Matthew Moran</t>
-        </is>
-      </c>
-      <c r="C42" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D42" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B43" s="4" t="inlineStr">
-        <is>
-          <t>Benjamin Howell</t>
-        </is>
-      </c>
-      <c r="C43" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D43" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t>Lucy Hoban</t>
-        </is>
-      </c>
-      <c r="C44" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D44" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B45" s="4" t="inlineStr">
-        <is>
-          <t>Sadbh Doyle</t>
-        </is>
-      </c>
-      <c r="C45" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D45" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B46" s="4" t="inlineStr">
-        <is>
-          <t>EibhlIn Humphreys</t>
-        </is>
-      </c>
-      <c r="C46" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D46" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B47" s="4" t="inlineStr">
-        <is>
-          <t>Rachael Roberts</t>
-        </is>
-      </c>
-      <c r="C47" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D47" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B48" s="4" t="inlineStr">
-        <is>
-          <t>sophie morris</t>
-        </is>
-      </c>
-      <c r="C48" s="4" t="inlineStr">
-        <is>
-          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
-        </is>
-      </c>
-      <c r="D48" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>Nadia Glod</t>
-        </is>
-      </c>
-      <c r="C49" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D49" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B50" s="4" t="inlineStr">
-        <is>
-          <t>Stephany Gabrielly Pesqueira</t>
-        </is>
-      </c>
-      <c r="C50" s="4" t="inlineStr">
-        <is>
-          <t>Essence Lemon and Lime</t>
-        </is>
-      </c>
-      <c r="D50" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B51" s="4" t="inlineStr">
-        <is>
-          <t>Stephany Gabrielly Pesqueira</t>
-        </is>
-      </c>
-      <c r="C51" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D51" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B52" s="4" t="inlineStr">
-        <is>
-          <t>Emma Warren</t>
-        </is>
-      </c>
-      <c r="C52" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D52" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B53" s="4" t="inlineStr">
-        <is>
-          <t>Jessica Carey</t>
-        </is>
-      </c>
-      <c r="C53" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D53" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B54" s="4" t="inlineStr">
-        <is>
-          <t>Jessica Carey</t>
-        </is>
-      </c>
-      <c r="C54" s="4" t="inlineStr">
-        <is>
-          <t>Popcorn</t>
-        </is>
-      </c>
-      <c r="D54" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B55" s="4" t="inlineStr">
-        <is>
-          <t>emma coburn</t>
-        </is>
-      </c>
-      <c r="C55" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D55" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B56" s="4" t="inlineStr">
-        <is>
-          <t>Noah O'Brien</t>
-        </is>
-      </c>
-      <c r="C56" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D56" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B57" s="4" t="inlineStr">
-        <is>
-          <t>Conor Morrin</t>
-        </is>
-      </c>
-      <c r="C57" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D57" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B58" s="4" t="inlineStr">
-        <is>
-          <t>kayleigh beatty</t>
-        </is>
-      </c>
-      <c r="C58" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup</t>
-        </is>
-      </c>
-      <c r="D58" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B59" s="4" t="inlineStr">
-        <is>
-          <t>kayleigh beatty</t>
-        </is>
-      </c>
-      <c r="C59" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D59" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="inlineStr">
-        <is>
-          <t>Total for 2nd</t>
-        </is>
-      </c>
-      <c r="B60" s="4" t="n"/>
-      <c r="C60" s="4" t="n"/>
-      <c r="D60" s="5" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B61" s="4" t="inlineStr">
-        <is>
-          <t>Odhran Davy</t>
-        </is>
-      </c>
-      <c r="C61" s="4" t="inlineStr">
-        <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
-        </is>
-      </c>
-      <c r="D61" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B62" s="4" t="inlineStr">
-        <is>
-          <t>Luke Reeves</t>
-        </is>
-      </c>
-      <c r="C62" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D62" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B63" s="4" t="inlineStr">
-        <is>
-          <t>Luke Reeves</t>
-        </is>
-      </c>
-      <c r="C63" s="4" t="inlineStr">
-        <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
-        </is>
-      </c>
-      <c r="D63" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B64" s="4" t="inlineStr">
-        <is>
-          <t>Ross Chapman</t>
-        </is>
-      </c>
-      <c r="C64" s="4" t="inlineStr">
-        <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
-        </is>
-      </c>
-      <c r="D64" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B65" s="4" t="inlineStr">
-        <is>
-          <t>Ross Chapman</t>
-        </is>
-      </c>
-      <c r="C65" s="4" t="inlineStr">
-        <is>
-          <t>Popcorn</t>
-        </is>
-      </c>
-      <c r="D65" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="3" t="inlineStr">
-        <is>
-          <t>Total for 4th</t>
-        </is>
-      </c>
-      <c r="B66" s="4" t="n"/>
-      <c r="C66" s="4" t="n"/>
-      <c r="D66" s="5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="inlineStr">
-        <is>
-          <t>6th</t>
-        </is>
-      </c>
-      <c r="B67" s="4" t="inlineStr">
-        <is>
-          <t>Charlie munro</t>
-        </is>
-      </c>
-      <c r="C67" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D67" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="3" t="inlineStr">
-        <is>
-          <t>6th</t>
-        </is>
-      </c>
-      <c r="B68" s="4" t="inlineStr">
-        <is>
-          <t>Jesse Redican</t>
-        </is>
-      </c>
-      <c r="C68" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D68" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="3" t="inlineStr">
-        <is>
-          <t>Total for 6th</t>
-        </is>
-      </c>
-      <c r="B69" s="4" t="n"/>
-      <c r="C69" s="4" t="n"/>
-      <c r="D69" s="5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="3" t="inlineStr">
-        <is>
-          <t>5th</t>
-        </is>
-      </c>
-      <c r="B70" s="4" t="inlineStr">
-        <is>
-          <t>Aaron Wilson</t>
-        </is>
-      </c>
-      <c r="C70" s="4" t="inlineStr">
-        <is>
-          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
-        </is>
-      </c>
-      <c r="D70" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="3" t="inlineStr">
-        <is>
-          <t>Total for 5th</t>
-        </is>
-      </c>
-      <c r="B71" s="4" t="n"/>
-      <c r="C71" s="4" t="n"/>
-      <c r="D71" s="5" t="n">
-        <v>1</v>
-      </c>
+          <t>No orders</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9338,7 +7445,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Chef Day Total for Thursday of Naas Community College-14 (Secondary)</t>
+          <t>Day Total for Thursday (Naas Community College-14)</t>
         </is>
       </c>
     </row>
@@ -10059,11 +8166,11 @@
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="00CCCCCC"/>
+    <tabColor rgb="0000B0F0"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10074,41 +8181,45 @@
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Staff Order Sheet for Friday of Naas Community College-14</t>
+          <t>Class Totals for Friday (Naas Community College-14)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Order ID</t>
+          <t>Class Year</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Staff Name</t>
+          <t>Menu Item</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
+          <t>Total Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>No data available</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10117,7 +8228,7 @@
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="0000B0F0"/>
+    <tabColor rgb="00CCCCCC"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -10138,19 +8249,19 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Class Totals for Friday (Naas Community College-14)</t>
+          <t>Staff Order Sheet for Friday of Naas Community College-14</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Class Year</t>
+          <t>Order ID</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Student Name</t>
+          <t>Staff Name</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -10167,7 +8278,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>No data available</t>
+          <t>No orders</t>
         </is>
       </c>
       <c r="B3" s="4" t="n"/>
@@ -10205,7 +8316,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Chef Day Total for Friday of Naas Community College-14 (Secondary)</t>
+          <t>Day Total for Friday (Naas Community College-14)</t>
         </is>
       </c>
     </row>
@@ -10386,11 +8497,453 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="0000B0F0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Class Totals for Monday (Naas Community College-14)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Class Year</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Item</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Total Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Essence Strawberry and Raspberry</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Chop Suey with Egg Fried Rice</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Oven baked crispy potato wedges</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Total for 1st</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Total for 3rd</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Essence Lemon and Lime</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>Total for 2nd</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="n"/>
+      <c r="C22" s="5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Total for 6th</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="n"/>
+      <c r="C24" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Sweet Chiili Chicken Wrap</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>Total for 4th</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A22:B22"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <tabColor rgb="00CCCCCC"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10424,64 +8977,6 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="0000B0F0"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Class Totals for Monday (Naas Community College-14)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Class Year</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
           <t>Menu Item</t>
         </is>
       </c>
@@ -10494,751 +8989,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Catherine Rojas</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Donnacha Fitzsimons</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Pola Szlachta</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>Pola Szlachta</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Essence Strawberry and Raspberry</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Noah Molyneaux</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>Ben McCormack</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Chop Suey with Egg Fried Rice</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>Sean Ryan</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>Anna Vaughan</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>Anna Vaughan</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>Oven baked crispy potato wedges</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>Zack McGann</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>Olaf Pala</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Chop Suey with Egg Fried Rice</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>Adam Szczepkowski</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>Total for 1st</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="n"/>
-      <c r="C15" s="4" t="n"/>
-      <c r="D15" s="5" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>Jake Coughlan</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>Nathan Kozik</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>Felipe Barreto</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>Ona Houlihan-Canestro</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>Oliwier Wasik</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>Callum casey</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>Total for 3rd</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="n"/>
-      <c r="C22" s="4" t="n"/>
-      <c r="D22" s="5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>Leo Carragher</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>Rian Munro</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>Rian Munro</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>Essence Lemon and Lime</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>Lexi Reeves</t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D26" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>Matthew Moran</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D27" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B28" s="4" t="inlineStr">
-        <is>
-          <t>Benjamin Howell</t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D28" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B29" s="4" t="inlineStr">
-        <is>
-          <t>Lucy Hoban</t>
-        </is>
-      </c>
-      <c r="C29" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D29" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>Sadbh Doyle</t>
-        </is>
-      </c>
-      <c r="C30" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D30" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B31" s="4" t="inlineStr">
-        <is>
-          <t>EibhlIn Humphreys</t>
-        </is>
-      </c>
-      <c r="C31" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D31" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B32" s="4" t="inlineStr">
-        <is>
-          <t>emma coburn</t>
-        </is>
-      </c>
-      <c r="C32" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D32" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>Maria Mccarthy</t>
-        </is>
-      </c>
-      <c r="C33" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D33" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>Total for 2nd</t>
-        </is>
-      </c>
-      <c r="B34" s="4" t="n"/>
-      <c r="C34" s="4" t="n"/>
-      <c r="D34" s="5" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>6th</t>
-        </is>
-      </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>Charlie munro</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>Total for 6th</t>
-        </is>
-      </c>
-      <c r="B36" s="4" t="n"/>
-      <c r="C36" s="4" t="n"/>
-      <c r="D36" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>Luke Reeves</t>
-        </is>
-      </c>
-      <c r="C37" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D37" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>Luke Reeves</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="inlineStr">
-        <is>
-          <t>Sweet Chiili Chicken Wrap</t>
-        </is>
-      </c>
-      <c r="D38" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>Ross Chapman</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>Georgia Condron</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D40" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
-          <t>Total for 4th</t>
-        </is>
-      </c>
-      <c r="B41" s="4" t="n"/>
-      <c r="C41" s="4" t="n"/>
-      <c r="D41" s="5" t="n">
-        <v>4</v>
-      </c>
+          <t>No orders</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11266,7 +9027,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Chef Day Total for Monday of Naas Community College-14 (Secondary)</t>
+          <t>Day Total for Monday (Naas Community College-14)</t>
         </is>
       </c>
     </row>

--- a/menu_files/admin_weekly_orderSheet_Naas_Community_College.xlsx
+++ b/menu_files/admin_weekly_orderSheet_Naas_Community_College.xlsx
@@ -16,42 +16,47 @@
     <sheet name="Monday Class Totals" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Staff Monday" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Monday Total" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="1st - Tuesday" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="2nd - Tuesday" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="3rd - Tuesday" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="4th - Tuesday" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="5th - Tuesday" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="6th - Tuesday" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Tuesday Class Totals" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Staff Tuesday" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Tuesday Total" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="1st - Wednesday" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="2nd - Wednesday" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="3rd - Wednesday" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="4th - Wednesday" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="5th - Wednesday" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="6th - Wednesday" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Wednesday Class Totals" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Staff Wednesday" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Wednesday Total" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="1st - Thursday" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="2nd - Thursday" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="3rd - Thursday" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="4th - Thursday" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="5th - Thursday" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="6th - Thursday" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="Thursday Class Totals" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="Staff Thursday" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="Thursday Total" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="1st - Friday" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="2nd - Friday" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="3rd - Friday" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="4th - Friday" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="5th - Friday" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="6th - Friday" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="Friday Class Totals" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="Staff Friday" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="Friday Total" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="Monday Canteen Staff " sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="1st - Tuesday" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="2nd - Tuesday" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="3rd - Tuesday" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="4th - Tuesday" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="5th - Tuesday" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="6th - Tuesday" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Tuesday Class Totals" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Staff Tuesday" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Tuesday Total" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Tuesday Canteen Staff " sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="1st - Wednesday" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="2nd - Wednesday" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="3rd - Wednesday" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="4th - Wednesday" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="5th - Wednesday" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="6th - Wednesday" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Wednesday Class Totals" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Staff Wednesday" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Wednesday Total" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Wednesday Canteen Staff " sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="1st - Thursday" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="2nd - Thursday" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="3rd - Thursday" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="4th - Thursday" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="5th - Thursday" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="6th - Thursday" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="Thursday Class Totals" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="Staff Thursday" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="Thursday Total" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="Thursday Canteen Staff " sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="1st - Friday" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="2nd - Friday" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="3rd - Friday" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="4th - Friday" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="5th - Friday" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="6th - Friday" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="Friday Class Totals" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="Staff Friday" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="Friday Total" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="Friday Canteen Staff " sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -780,6 +785,744 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="00FF9966"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Detailed Day Total for Monday (Naas Community College-14)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Teacher/Class</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Item</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Adam Szczepkowski</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Anna Vaughan</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Anna Vaughan</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Oven baked crispy potato wedges</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Ben McCormack</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Chop Suey with Egg Fried Rice</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Catherine Rojas</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Donnacha Fitzsimons</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Noah Molyneaux</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Olaf Pala</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Chop Suey with Egg Fried Rice</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Pola Szlachta</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Pola Szlachta</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Essence Strawberry and Raspberry</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Sean Ryan</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Zack McGann</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Callum casey</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Felipe Barreto</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Jake Coughlan</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Nathan Kozik</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Oliwier Wasik</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Ona Houlihan-Canestro</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Benjamin Howell</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>EibhlIn Humphreys</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Leo Carragher</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Lexi Reeves</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>Lucy Hoban</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Maria Mccarthy</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>Matthew Moran</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>Rian Munro</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>Rian Munro</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>Essence Lemon and Lime</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>Sadbh Doyle</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>emma coburn</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Charlie munro</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>Georgia Condron</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>Luke Reeves</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>Luke Reeves</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Sweet Chiili Chicken Wrap</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>Ross Chapman</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <tabColor rgb="0000FF00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1123,7 +1866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="0000FF00"/>
@@ -1368,172 +2111,6 @@
         </is>
       </c>
       <c r="D13" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="0000FF00"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Class 3rd Order Sheet for Tuesday of Naas Community College-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Order ID</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>4171</v>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Jake Coughlan</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>4205</v>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Nathan Kozik</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>4370</v>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Felipe Barreto</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>4389</v>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>Ona Houlihan-Canestro</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>4517</v>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Oliwier Wasik</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>5058</v>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>Harry Keegan</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Chop Suey with Egg Fried Rice</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1569,7 +2146,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Class 4th Order Sheet for Tuesday of Naas Community College-14</t>
+          <t>Class 3rd Order Sheet for Tuesday of Naas Community College-14</t>
         </is>
       </c>
     </row>
@@ -1597,16 +2174,16 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>4304</v>
+        <v>4171</v>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Odhran Davy</t>
+          <t>Jake Coughlan</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Chicken Chop Suey with Egg Fried Rice</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="D3" s="4" t="n">
@@ -1615,16 +2192,16 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>4573</v>
+        <v>4205</v>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Luke Reeves</t>
+          <t>Nathan Kozik</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
+          <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
       <c r="D4" s="4" t="n">
@@ -1633,16 +2210,16 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>4573</v>
+        <v>4370</v>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Luke Reeves</t>
+          <t>Felipe Barreto</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="D5" s="4" t="n">
@@ -1651,16 +2228,16 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>4653</v>
+        <v>4389</v>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Ross Chapman</t>
+          <t>Ona Houlihan-Canestro</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
+          <t>Breaded Chicken Baguette</t>
         </is>
       </c>
       <c r="D6" s="4" t="n">
@@ -1669,16 +2246,16 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>5087</v>
+        <v>4517</v>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Patryk Zawikowski</t>
+          <t>Oliwier Wasik</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="D7" s="4" t="n">
@@ -1687,16 +2264,16 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>5182</v>
+        <v>5058</v>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Georgia Condron</t>
+          <t>Harry Keegan</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Chicken Chop Suey with Egg Fried Rice</t>
         </is>
       </c>
       <c r="D8" s="4" t="n">
@@ -1712,6 +2289,172 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="0000FF00"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Class 4th Order Sheet for Tuesday of Naas Community College-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Order ID</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Items</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>4304</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Odhran Davy</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Chop Suey with Egg Fried Rice</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>4573</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Luke Reeves</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>4573</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Luke Reeves</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4653</v>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Ross Chapman</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5087</v>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Patryk Zawikowski</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>5182</v>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Georgia Condron</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="0000FF00"/>
@@ -1787,7 +2530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="0000FF00"/>
@@ -1881,14 +2624,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="0000B0F0"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1911,7 +2654,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Class Year</t>
+          <t>Class Name</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -2411,8 +3154,25 @@
         <v>1</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="3" t="n"/>
+      <c r="B37" s="4" t="n"/>
+      <c r="C37" s="4" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>Grand Total (All)</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="n"/>
+      <c r="C38" s="5" t="n">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A36:B36"/>
@@ -2425,7 +3185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00CCCCCC"/>
@@ -2494,14 +3254,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00FFD700"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2632,427 +3392,19 @@
         <v>2</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Grand Total</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="000000FF"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Class 1st Order Sheet for Wednesday of Naas Community College-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Order ID</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>3725</v>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Catherine Rojas</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>4045</v>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Donnacha Fitzsimons</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>4418</v>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Noah Molyneaux</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>4626</v>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>Ben McCormack</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>4775</v>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Olaf Pala</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>4779</v>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>Adam Szczepkowski</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>4906</v>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>Wiktor Szadzinski</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>4917</v>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>Emmie Murphy</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>5024</v>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>John Marco Diamat</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>Oven baked crispy potato wedges</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>5076</v>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>Rebecca Rattigan</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>5106</v>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>Jamie Higgins</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>5150</v>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>Jaden Gilbride</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>5193</v>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>Daniel Burkett</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>5195</v>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>Arian Pluta Misini</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>5197</v>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>Jake Teeling</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>5197</v>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>Jake Teeling</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>Essence Strawberry and Raspberry</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>5219</v>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>Riley Mulvaney</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>5241</v>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>Luke McCann</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>Meat Free Meatballs in Tomato and Basil Sauce</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>5241</v>
-      </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>Luke McCann</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>Essence Strawberry and Raspberry</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>5244</v>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>Harry Kelly</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3317,6 +3669,1322 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="00FF9966"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Detailed Day Total for Tuesday (Naas Community College-14)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Teacher/Class</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Item</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Adam Szczepkowski</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Anna Vaughan</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Oven baked potato cubes</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Ben McCormack</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Catherine Rojas</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Donnacha Fitzsimons</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Chop Suey with Egg Fried Rice</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Emmie Murphy</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Jade Delahunt</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Jamie Higgins</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>John Marco Diamat</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Oven baked crispy potato wedges</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Noah Molyneaux</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Olaf Pala</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Pola Szlachta</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Essence Strawberry and Raspberry</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Pola Szlachta</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Rebecca Rattigan</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Riley Mulvaney</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Wiktor Szadzinski</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Chop Suey with Egg Fried Rice</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Felipe Barreto</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Harry Keegan</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Chop Suey with Egg Fried Rice</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Jake Coughlan</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Nathan Kozik</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Oliwier Wasik</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Ona Houlihan-Canestro</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>Benjamin Howell</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Chop Suey with Egg Fried Rice</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>EibhlIn Humphreys</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>Leo Carragher</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>Lexi Reeves</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>Lucy Hoban</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>Matthew Moran</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Rachael Roberts</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Rian Munro</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>Sadbh Doyle</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Chop Suey with Egg Fried Rice</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>emma coburn</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>sophie morris</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Chop Suey with Egg Fried Rice</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>Georgia Condron</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Luke Reeves</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>Luke Reeves</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>Odhran Davy</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Chop Suey with Egg Fried Rice</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Patryk Zawikowski</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>Ross Chapman</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>Charlie munro</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Chop Suey with Egg Fried Rice</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>Jesse Redican</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>Aaron Wilson</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="000000FF"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Class 1st Order Sheet for Wednesday of Naas Community College-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Order ID</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Items</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>3725</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Catherine Rojas</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>4045</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Donnacha Fitzsimons</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>4418</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Noah Molyneaux</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4626</v>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Ben McCormack</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>4775</v>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Olaf Pala</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>4779</v>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Adam Szczepkowski</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>4906</v>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Wiktor Szadzinski</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>4917</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Emmie Murphy</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>5024</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>John Marco Diamat</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Oven baked crispy potato wedges</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>5076</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Rebecca Rattigan</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>5106</v>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Jamie Higgins</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>5150</v>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Jaden Gilbride</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Daniel Burkett</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Arian Pluta Misini</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Jake Teeling</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Jake Teeling</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Essence Strawberry and Raspberry</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>5219</v>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Riley Mulvaney</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>5241</v>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Luke McCann</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Meat Free Meatballs in Tomato and Basil Sauce</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>5241</v>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Luke McCann</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Essence Strawberry and Raspberry</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>5244</v>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Harry Kelly</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <tabColor rgb="000000FF"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -3840,7 +5508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="000000FF"/>
@@ -4024,7 +5692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="000000FF"/>
@@ -4093,7 +5761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="000000FF"/>
@@ -4169,7 +5837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="000000FF"/>
@@ -4263,14 +5931,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="0000B0F0"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4293,7 +5961,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Class Year</t>
+          <t>Class Name</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -4793,8 +6461,25 @@
         <v>1</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="3" t="n"/>
+      <c r="B37" s="4" t="n"/>
+      <c r="C37" s="4" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>Grand Total (All)</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="n"/>
+      <c r="C38" s="5" t="n">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A32:B32"/>
@@ -4807,7 +6492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00CCCCCC"/>
@@ -4876,14 +6561,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00FFD700"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5064,989 +6749,19 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Grand Total</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FFFF00"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Class 1st Order Sheet for Thursday of Naas Community College-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Order ID</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>3726</v>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Catherine Rojas</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>4046</v>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Donnacha Fitzsimons</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>4417</v>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Noah Molyneaux</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>4627</v>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>Ben McCormack</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>4729</v>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Anna Vaughan</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Oven baked crispy potato wedges</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>4776</v>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>Olaf Pala</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>4780</v>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>Adam Szczepkowski</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>4869</v>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>Jade Delahunt</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>4907</v>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>Wiktor Szadzinski</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>4918</v>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>Emmie Murphy</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>5025</v>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>John Marco Diamat</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>5075</v>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>Rebecca Rattigan</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>5151</v>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>Jaden Gilbride</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>5196</v>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>Arian Pluta Misini</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>5198</v>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>Jake Teeling</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>5198</v>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>Jake Teeling</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>Essence Strawberry and Raspberry</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>5245</v>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>Harry Kelly</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>5265</v>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>Riley Mulvaney</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>5267</v>
-      </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>Rilé Murphy</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>5268</v>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>Cian O Brien</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>5268</v>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>Cian O Brien</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>Essence Strawberry and Raspberry</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>5273</v>
-      </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>Sean Ryan</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="n">
-        <v>5273</v>
-      </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>Sean Ryan</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>Oven baked potato cubes</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>5274</v>
-      </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>Pola Szlachta</t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="inlineStr">
-        <is>
-          <t>Sweet Chiili Chicken Wrap</t>
-        </is>
-      </c>
-      <c r="D26" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="n">
-        <v>5278</v>
-      </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>Jamie Higgins</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D27" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="n">
-        <v>5296</v>
-      </c>
-      <c r="B28" s="4" t="inlineStr">
-        <is>
-          <t>Kayla Leahy</t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D28" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FFFF00"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Class 2nd Order Sheet for Thursday of Naas Community College-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Order ID</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>4261</v>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Leo Carragher</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>4505</v>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Rian Munro</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>4505</v>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Rian Munro</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>Essence Lemon and Lime</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>4526</v>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>Lexi Reeves</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Meat Free Meatballs in Tomato and Basil Sauce</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>4562</v>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Matthew Moran</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>4665</v>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>Benjamin Howell</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>4689</v>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>Lucy Hoban</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>4702</v>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>Sadbh Doyle</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>4711</v>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>EibhlIn Humphreys</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>5045</v>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>Rachael Roberts</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>5165</v>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>sophie morris</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>5202</v>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>Nadia Glod</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>5217</v>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>Stephany Gabrielly Pesqueira</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>Essence Lemon and Lime</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>5217</v>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>Stephany Gabrielly Pesqueira</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>5223</v>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>Emma Warren</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>5254</v>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>Jessica Carey</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>5254</v>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>Jessica Carey</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
-        <is>
-          <t>Popcorn</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>5282</v>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>emma coburn</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>5286</v>
-      </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>Noah O'Brien</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>5290</v>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>Conor Morrin</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>5300</v>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>kayleigh beatty</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>5300</v>
-      </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>kayleigh beatty</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6221,6 +6936,2184 @@
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="00FF9966"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Detailed Day Total for Wednesday (Naas Community College-14)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Teacher/Class</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Item</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Adam Szczepkowski</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Arian Pluta Misini</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Ben McCormack</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Catherine Rojas</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Daniel Burkett</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Donnacha Fitzsimons</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Emmie Murphy</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Harry Kelly</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Jaden Gilbride</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Jake Teeling</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Jake Teeling</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Essence Strawberry and Raspberry</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Jamie Higgins</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>John Marco Diamat</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Oven baked crispy potato wedges</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Luke McCann</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Meat Free Meatballs in Tomato and Basil Sauce</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Luke McCann</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Essence Strawberry and Raspberry</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Noah Molyneaux</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Olaf Pala</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Rebecca Rattigan</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Riley Mulvaney</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Wiktor Szadzinski</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Callum casey</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Felipe Barreto</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>Harry Keegan</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Jake Coughlan</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>Nathan Kozik</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>Oliwier Wasik</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>Ona Houlihan-Canestro</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>Amy Anson</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Caesar Salad with Homemade Brown Bread</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Benjamin Howell</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Blanka Szulc</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>EibhlIn Humphreys</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>Emma Warren</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>Fiona Mullen</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>Jessica Carey</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Jessica Carey</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>Popcorn</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>Leo Carragher</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>Leo Carragher</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>Sweet Chiili Chicken Wrap</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Lexi Reeves</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>Lucy Hoban</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>Matthew Moran</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>Nadia Glod</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Oven baked potato cubes</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>Nadia Glod</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>Oisin Conlan</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>Rachael Roberts</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D46" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>Rian Munro</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>Ryan Crouch</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>Ryan O Connor</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>Sadbh Doyle</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>Shonagh Purcell Tobin</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Caesar Salad with Homemade Brown Bread</t>
+        </is>
+      </c>
+      <c r="D51" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>Stephany Gabrielly Pesqueira</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>Essence Lemon and Lime</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>Stephany Gabrielly Pesqueira</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>emma coburn</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Caesar Salad with Homemade Brown Bread</t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>sophie morris</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>Charlie munro</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>Jesse Redican</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>Aaron Wilson</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="D58" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>Ben Cahalan</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="D59" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00FFFF00"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Class 1st Order Sheet for Thursday of Naas Community College-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Order ID</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Items</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>3726</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Catherine Rojas</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>4046</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Donnacha Fitzsimons</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>4417</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Noah Molyneaux</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4627</v>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Ben McCormack</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>4729</v>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Anna Vaughan</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Oven baked crispy potato wedges</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>4776</v>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Olaf Pala</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>4780</v>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Adam Szczepkowski</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>4869</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Jade Delahunt</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>4907</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Wiktor Szadzinski</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>4918</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Emmie Murphy</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>5025</v>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>John Marco Diamat</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>5075</v>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Rebecca Rattigan</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>5151</v>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Jaden Gilbride</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>5196</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Arian Pluta Misini</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Jake Teeling</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Jake Teeling</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Essence Strawberry and Raspberry</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>5245</v>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Harry Kelly</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>5265</v>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Riley Mulvaney</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>5267</v>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Rilé Murphy</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>5268</v>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Cian O Brien</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>5268</v>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Cian O Brien</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Essence Strawberry and Raspberry</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>5273</v>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Sean Ryan</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>5273</v>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>Sean Ryan</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>Oven baked potato cubes</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>5274</v>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Pola Szlachta</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>Sweet Chiili Chicken Wrap</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>5278</v>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>Jamie Higgins</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>5296</v>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>Kayla Leahy</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00FFFF00"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Class 2nd Order Sheet for Thursday of Naas Community College-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Order ID</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Items</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>4261</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Leo Carragher</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>4505</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Rian Munro</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>4505</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Rian Munro</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Essence Lemon and Lime</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4526</v>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Lexi Reeves</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Meat Free Meatballs in Tomato and Basil Sauce</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>4562</v>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Matthew Moran</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>4665</v>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Benjamin Howell</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>4689</v>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Lucy Hoban</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>4702</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Sadbh Doyle</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>4711</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>EibhlIn Humphreys</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>5045</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Rachael Roberts</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>5165</v>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>sophie morris</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>5202</v>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Nadia Glod</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>5217</v>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Stephany Gabrielly Pesqueira</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Essence Lemon and Lime</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>5217</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Stephany Gabrielly Pesqueira</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>5223</v>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Emma Warren</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>5254</v>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Jessica Carey</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>5254</v>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Jessica Carey</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Popcorn</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>5282</v>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>emma coburn</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>5286</v>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Noah O'Brien</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>5290</v>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Conor Morrin</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>5300</v>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>kayleigh beatty</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>5300</v>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>kayleigh beatty</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <tabColor rgb="00FFFF00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6402,7 +9295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00FFFF00"/>
@@ -6550,7 +9443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00FFFF00"/>
@@ -6626,7 +9519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00FFFF00"/>
@@ -6720,14 +9613,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="0000B0F0"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6750,7 +9643,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Class Year</t>
+          <t>Class Name</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -7340,13 +10233,30 @@
         <v>1</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" s="3" t="n"/>
+      <c r="B43" s="4" t="n"/>
+      <c r="C43" s="4" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>Grand Total (All)</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="n"/>
+      <c r="C44" s="5" t="n">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A44:B44"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A22:B22"/>
   </mergeCells>
@@ -7354,7 +10264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00CCCCCC"/>
@@ -7423,14 +10333,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00FFD700"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7611,216 +10521,19 @@
         <v>3</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Grand Total</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FF00FF"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Class 1st Order Sheet for Friday of Naas Community College-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Order ID</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>No orders</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-      <c r="D3" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FF00FF"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Class 2nd Order Sheet for Friday of Naas Community College-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Order ID</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>No orders</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-      <c r="D3" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00FF00FF"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Class 3rd Order Sheet for Friday of Naas Community College-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Order ID</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Student Name</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Menu Items</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>No orders</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-      <c r="D3" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7959,11 +10672,11 @@
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="00FF00FF"/>
+    <tabColor rgb="00FF9966"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7980,14 +10693,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Class 4th Order Sheet for Friday of Naas Community College-14</t>
+          <t>Detailed Day Total for Thursday (Naas Community College-14)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Order ID</t>
+          <t>Teacher/Class</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -7997,7 +10710,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Menu Items</t>
+          <t>Menu Item</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -8009,17 +10722,1266 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>No orders</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-      <c r="D3" s="4" t="n"/>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Adam Szczepkowski</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Anna Vaughan</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Oven baked crispy potato wedges</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Arian Pluta Misini</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Ben McCormack</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Catherine Rojas</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Cian O Brien</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Cian O Brien</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Essence Strawberry and Raspberry</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Donnacha Fitzsimons</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Emmie Murphy</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Harry Kelly</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Jade Delahunt</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Jaden Gilbride</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Jake Teeling</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Jake Teeling</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Essence Strawberry and Raspberry</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Jamie Higgins</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>John Marco Diamat</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Kayla Leahy</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Noah Molyneaux</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Olaf Pala</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Pola Szlachta</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Sweet Chiili Chicken Wrap</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Rebecca Rattigan</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Riley Mulvaney</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>Rilé Murphy</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Sean Ryan</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>Sean Ryan</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>Oven baked potato cubes</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>Wiktor Szadzinski</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>Callum casey</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>Felipe Barreto</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Harry Keegan</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Jake Coughlan</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>Nathan Kozik</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>Oliwier Wasik</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Sweet Chiili Chicken Wrap</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>Ona Houlihan-Canestro</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Sweet Chiili Chicken Wrap</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>Benjamin Howell</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Conor Morrin</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>EibhlIn Humphreys</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>Emma Warren</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Jessica Carey</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>Jessica Carey</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Popcorn</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>Leo Carragher</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>Lexi Reeves</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Meat Free Meatballs in Tomato and Basil Sauce</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>Lucy Hoban</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>Matthew Moran</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>Nadia Glod</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D46" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>Noah O'Brien</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>Rachael Roberts</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>Rian Munro</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>Rian Munro</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>Essence Lemon and Lime</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>Sadbh Doyle</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D51" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>Stephany Gabrielly Pesqueira</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>Essence Lemon and Lime</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>Stephany Gabrielly Pesqueira</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>emma coburn</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>kayleigh beatty</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>kayleigh beatty</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>sophie morris</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>Luke Reeves</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="D58" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>Luke Reeves</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="D59" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>Odhran Davy</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="D60" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>Ross Chapman</t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="D61" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>Ross Chapman</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>Popcorn</t>
+        </is>
+      </c>
+      <c r="D62" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>Charlie munro</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="D63" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>Jesse Redican</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="D64" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>Aaron Wilson</t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
+        </is>
+      </c>
+      <c r="D65" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8049,7 +12011,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Class 5th Order Sheet for Friday of Naas Community College-14</t>
+          <t>Class 1st Order Sheet for Friday of Naas Community College-14</t>
         </is>
       </c>
     </row>
@@ -8118,7 +12080,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Class 6th Order Sheet for Friday of Naas Community College-14</t>
+          <t>Class 2nd Order Sheet for Friday of Naas Community College-14</t>
         </is>
       </c>
     </row>
@@ -8164,6 +12126,282 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00FF00FF"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Class 3rd Order Sheet for Friday of Naas Community College-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Order ID</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Items</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>No orders</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00FF00FF"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Class 4th Order Sheet for Friday of Naas Community College-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Order ID</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Items</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>No orders</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00FF00FF"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Class 5th Order Sheet for Friday of Naas Community College-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Order ID</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Items</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>No orders</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00FF00FF"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Class 6th Order Sheet for Friday of Naas Community College-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Order ID</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Items</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>No orders</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="0000B0F0"/>
@@ -8193,7 +12431,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Class Year</t>
+          <t>Class Name</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -8225,7 +12463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00CCCCCC"/>
@@ -8294,7 +12532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00FFD700"/>
@@ -8418,6 +12656,75 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00FF9966"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Detailed Day Total for Friday (Naas Community College-14)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Teacher/Class</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Menu Item</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>No orders</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -8501,7 +12808,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8524,7 +12831,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Class Year</t>
+          <t>Class Name</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -8923,13 +13230,30 @@
         <v>4</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="3" t="n"/>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="4" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>Grand Total (All)</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="n"/>
+      <c r="C31" s="5" t="n">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A22:B22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9012,7 +13336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9153,6 +13477,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Grand Total</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/menu_files/admin_weekly_orderSheet_Naas_Community_College.xlsx
+++ b/menu_files/admin_weekly_orderSheet_Naas_Community_College.xlsx
@@ -789,7 +789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,6 +801,7 @@
     <col width="25" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -813,708 +814,815 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>Order ID</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
           <t>Teacher/Class</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Student Name</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Menu Item</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="3" t="n">
+        <v>4777</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>Adam Szczepkowski</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="E3" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="3" t="n">
+        <v>4727</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Anna Vaughan</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Breaded Chicken Baguette</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="E4" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="3" t="n">
+        <v>4727</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Anna Vaughan</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>Oven baked crispy potato wedges</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="E5" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="3" t="n">
+        <v>4624</v>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>Ben McCormack</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>Chicken Chop Suey with Egg Fried Rice</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="E6" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="3" t="n">
+        <v>3723</v>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Catherine Rojas</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="E7" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="3" t="n">
+        <v>4043</v>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>Donnacha Fitzsimons</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="E8" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="3" t="n">
+        <v>4420</v>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Noah Molyneaux</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>Breaded Chicken Baguette</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="E9" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="3" t="n">
+        <v>4773</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>Olaf Pala</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>Chicken Chop Suey with Egg Fried Rice</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="E10" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="3" t="n">
+        <v>4338</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>Pola Szlachta</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>Tex Mex Nachos</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="E11" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="3" t="n">
+        <v>4338</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Pola Szlachta</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>Essence Strawberry and Raspberry</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="E12" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="3" t="n">
+        <v>4694</v>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Sean Ryan</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>Breaded Chicken Baguette</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="E13" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="3" t="n">
+        <v>4753</v>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>Zack McGann</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>Tex Mex Nachos</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="E14" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="3" t="n">
+        <v>4662</v>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Benjamin Howell</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>4708</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>EibhlIn Humphreys</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>4258</v>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Leo Carragher</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>4523</v>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Lexi Reeves</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>4686</v>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Lucy Hoban</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>4794</v>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Maria Mccarthy</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>4565</v>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Matthew Moran</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>4502</v>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Rian Munro</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>4502</v>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Rian Munro</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>Essence Lemon and Lime</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>4699</v>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Sadbh Doyle</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>4760</v>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>emma coburn</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>4632</v>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>Callum casey</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>Breaded Chicken Baguette</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="E26" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>4369</v>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>Felipe Barreto</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr">
         <is>
           <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="E27" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>4170</v>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>Jake Coughlan</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="D28" s="4" t="inlineStr">
         <is>
           <t>Tex Mex Nachos</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="E28" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>4204</v>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>Nathan Kozik</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="D29" s="4" t="inlineStr">
         <is>
           <t>Tex Mex Nachos</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="E29" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>4518</v>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t>Oliwier Wasik</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="D30" s="4" t="inlineStr">
         <is>
           <t>Breaded Chicken Baguette</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="E30" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>4388</v>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t>Ona Houlihan-Canestro</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="D31" s="4" t="inlineStr">
         <is>
           <t>Traditional Vegetable Soup With freshly baked roll</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>Benjamin Howell</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>EibhlIn Humphreys</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="E31" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>4726</v>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Georgia Condron</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>4572</v>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Luke Reeves</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>4572</v>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Luke Reeves</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>Sweet Chiili Chicken Wrap</t>
+        </is>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>4652</v>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Ross Chapman</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
         <is>
           <t>Breaded Chicken Baguette</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>Leo Carragher</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="E35" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>4498</v>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Charlie munro</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
         <is>
           <t>Tex Mex Nachos</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>Lexi Reeves</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>Lucy Hoban</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>Maria Mccarthy</t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D26" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>Matthew Moran</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D27" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B28" s="4" t="inlineStr">
-        <is>
-          <t>Rian Munro</t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D28" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B29" s="4" t="inlineStr">
-        <is>
-          <t>Rian Munro</t>
-        </is>
-      </c>
-      <c r="C29" s="4" t="inlineStr">
-        <is>
-          <t>Essence Lemon and Lime</t>
-        </is>
-      </c>
-      <c r="D29" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>Sadbh Doyle</t>
-        </is>
-      </c>
-      <c r="C30" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D30" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B31" s="4" t="inlineStr">
-        <is>
-          <t>emma coburn</t>
-        </is>
-      </c>
-      <c r="C31" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D31" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>6th</t>
-        </is>
-      </c>
-      <c r="B32" s="4" t="inlineStr">
-        <is>
-          <t>Charlie munro</t>
-        </is>
-      </c>
-      <c r="C32" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D32" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>Georgia Condron</t>
-        </is>
-      </c>
-      <c r="C33" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D33" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>Luke Reeves</t>
-        </is>
-      </c>
-      <c r="C34" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D34" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>Luke Reeves</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>Sweet Chiili Chicken Wrap</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B36" s="4" t="inlineStr">
-        <is>
-          <t>Ross Chapman</t>
-        </is>
-      </c>
-      <c r="C36" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D36" s="4" t="n">
+      <c r="E36" s="4" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3673,7 +3781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3685,6 +3793,7 @@
     <col width="25" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3697,868 +3806,999 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>Order ID</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
           <t>Teacher/Class</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Student Name</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Menu Item</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="3" t="n">
+        <v>4778</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>Adam Szczepkowski</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>Tex Mex Nachos</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="E3" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="3" t="n">
+        <v>4728</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Anna Vaughan</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Oven baked potato cubes</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="E4" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="3" t="n">
+        <v>4625</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Ben McCormack</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="E5" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="3" t="n">
+        <v>3724</v>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>Catherine Rojas</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="E6" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="3" t="n">
+        <v>4044</v>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Donnacha Fitzsimons</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Chicken Chop Suey with Egg Fried Rice</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="E7" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="3" t="n">
+        <v>4916</v>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>Emmie Murphy</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="E8" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="3" t="n">
+        <v>4868</v>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Jade Delahunt</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="E9" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="3" t="n">
+        <v>5105</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>Jamie Higgins</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="E10" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="3" t="n">
+        <v>5023</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>John Marco Diamat</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>Oven baked crispy potato wedges</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="E11" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="3" t="n">
+        <v>4419</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Noah Molyneaux</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>Breaded Chicken Baguette</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="E12" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="3" t="n">
+        <v>4774</v>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Olaf Pala</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="E13" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="3" t="n">
+        <v>4796</v>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>Pola Szlachta</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>Essence Strawberry and Raspberry</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="E14" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="3" t="n">
+        <v>4796</v>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Pola Szlachta</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>Tex Mex Nachos</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="E15" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="3" t="n">
+        <v>5074</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Rebecca Rattigan</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="E16" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="3" t="n">
+        <v>4915</v>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Riley Mulvaney</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>Breaded Chicken Baguette</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="E17" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="3" t="n">
+        <v>4905</v>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>Wiktor Szadzinski</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>Chicken Chop Suey with Egg Fried Rice</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="E18" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="A19" s="3" t="n">
+        <v>4663</v>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Benjamin Howell</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Chop Suey with Egg Fried Rice</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>4709</v>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>EibhlIn Humphreys</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>4259</v>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Leo Carragher</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>4524</v>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Lexi Reeves</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>4687</v>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Lucy Hoban</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>4564</v>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Matthew Moran</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>5043</v>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>Rachael Roberts</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>4503</v>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>Rian Munro</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>4700</v>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>Sadbh Doyle</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Chop Suey with Egg Fried Rice</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>4761</v>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>emma coburn</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>5163</v>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>sophie morris</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Chop Suey with Egg Fried Rice</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>4370</v>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t>Felipe Barreto</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="D30" s="4" t="inlineStr">
         <is>
           <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="E30" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>5058</v>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t>Harry Keegan</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="D31" s="4" t="inlineStr">
         <is>
           <t>Chicken Chop Suey with Egg Fried Rice</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="E31" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>4171</v>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t>Jake Coughlan</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="D32" s="4" t="inlineStr">
         <is>
           <t>Tex Mex Nachos</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="E32" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>4205</v>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Nathan Kozik</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="D33" s="4" t="inlineStr">
         <is>
           <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="E33" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>4517</v>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="C34" s="4" t="inlineStr">
         <is>
           <t>Oliwier Wasik</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="D34" s="4" t="inlineStr">
         <is>
           <t>Tex Mex Nachos</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="E34" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>4389</v>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>Ona Houlihan-Canestro</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="D35" s="4" t="inlineStr">
         <is>
           <t>Breaded Chicken Baguette</t>
         </is>
       </c>
-      <c r="D24" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>Benjamin Howell</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="E35" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>5182</v>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Georgia Condron</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>4573</v>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>Luke Reeves</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>4573</v>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>Luke Reeves</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>4304</v>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>Odhran Davy</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
         <is>
           <t>Chicken Chop Suey with Egg Fried Rice</t>
         </is>
       </c>
-      <c r="D25" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>EibhlIn Humphreys</t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D26" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>Leo Carragher</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="E39" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>5087</v>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>Patryk Zawikowski</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
         <is>
           <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
-      <c r="D27" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B28" s="4" t="inlineStr">
-        <is>
-          <t>Lexi Reeves</t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="E40" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>4653</v>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Ross Chapman</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>5113</v>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Aaron Wilson</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>4499</v>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Charlie munro</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Chop Suey with Egg Fried Rice</t>
+        </is>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>5071</v>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Jesse Redican</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="inlineStr">
         <is>
           <t>Tex Mex Nachos</t>
         </is>
       </c>
-      <c r="D28" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B29" s="4" t="inlineStr">
-        <is>
-          <t>Lucy Hoban</t>
-        </is>
-      </c>
-      <c r="C29" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D29" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>Matthew Moran</t>
-        </is>
-      </c>
-      <c r="C30" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D30" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B31" s="4" t="inlineStr">
-        <is>
-          <t>Rachael Roberts</t>
-        </is>
-      </c>
-      <c r="C31" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D31" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B32" s="4" t="inlineStr">
-        <is>
-          <t>Rian Munro</t>
-        </is>
-      </c>
-      <c r="C32" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D32" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>Sadbh Doyle</t>
-        </is>
-      </c>
-      <c r="C33" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Chop Suey with Egg Fried Rice</t>
-        </is>
-      </c>
-      <c r="D33" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>emma coburn</t>
-        </is>
-      </c>
-      <c r="C34" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D34" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>sophie morris</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Chop Suey with Egg Fried Rice</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B36" s="4" t="inlineStr">
-        <is>
-          <t>Georgia Condron</t>
-        </is>
-      </c>
-      <c r="C36" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D36" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>Luke Reeves</t>
-        </is>
-      </c>
-      <c r="C37" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D37" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>Luke Reeves</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D38" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>Odhran Davy</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Chop Suey with Egg Fried Rice</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>Patryk Zawikowski</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D40" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B41" s="4" t="inlineStr">
-        <is>
-          <t>Ross Chapman</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="inlineStr">
-        <is>
-          <t>6th</t>
-        </is>
-      </c>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t>Charlie munro</t>
-        </is>
-      </c>
-      <c r="C42" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Chop Suey with Egg Fried Rice</t>
-        </is>
-      </c>
-      <c r="D42" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t>6th</t>
-        </is>
-      </c>
-      <c r="B43" s="4" t="inlineStr">
-        <is>
-          <t>Jesse Redican</t>
-        </is>
-      </c>
-      <c r="C43" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="D43" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>5th</t>
-        </is>
-      </c>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t>Aaron Wilson</t>
-        </is>
-      </c>
-      <c r="C44" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="D44" s="4" t="n">
+      <c r="E44" s="4" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6940,7 +7180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6952,6 +7192,7 @@
     <col width="25" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6964,1168 +7205,1344 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>Order ID</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
           <t>Teacher/Class</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Student Name</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Menu Item</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="3" t="n">
+        <v>4779</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>Adam Szczepkowski</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>Chicken Curry Madras</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="E3" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="3" t="n">
+        <v>5195</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Arian Pluta Misini</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Traditional Vegetable Soup With freshly baked roll</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="E4" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="3" t="n">
+        <v>4626</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Ben McCormack</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>Chicken Curry Madras</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="E5" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="3" t="n">
+        <v>3725</v>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>Catherine Rojas</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="E6" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="3" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Daniel Burkett</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Breaded Chicken Baguette</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="E7" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="3" t="n">
+        <v>4045</v>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>Donnacha Fitzsimons</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>Barbecue Pulled Pork Bap with crispy onions.</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="E8" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="3" t="n">
+        <v>4917</v>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Emmie Murphy</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>Chicken Curry Madras</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="E9" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="3" t="n">
+        <v>5244</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>Harry Kelly</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="E10" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="3" t="n">
+        <v>5150</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>Jaden Gilbride</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>Chicken Curry Madras</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="E11" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="3" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Jake Teeling</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>Chicken Curry Madras</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="E12" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="3" t="n">
+        <v>5197</v>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Jake Teeling</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>Essence Strawberry and Raspberry</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="E13" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="3" t="n">
+        <v>5106</v>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>Jamie Higgins</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="E14" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="3" t="n">
+        <v>5024</v>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>John Marco Diamat</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>Oven baked crispy potato wedges</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="E15" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="3" t="n">
+        <v>5241</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Luke McCann</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>Meat Free Meatballs in Tomato and Basil Sauce</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="E16" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="3" t="n">
+        <v>5241</v>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Luke McCann</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>Essence Strawberry and Raspberry</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="E17" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="3" t="n">
+        <v>4418</v>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>Noah Molyneaux</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>Breaded Chicken Baguette</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="E18" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="A19" s="3" t="n">
+        <v>4775</v>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>Olaf Pala</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>Chicken Curry Madras</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="E19" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="A20" s="3" t="n">
+        <v>5076</v>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>Rebecca Rattigan</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>Barbecue Pulled Pork Bap with crispy onions.</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="E20" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="3" t="n">
+        <v>5219</v>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>Riley Mulvaney</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="E21" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="3" t="n">
+        <v>4906</v>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>Wiktor Szadzinski</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="D22" s="4" t="inlineStr">
         <is>
           <t>Barbecue Pulled Pork Bap with crispy onions.</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="E22" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="3" t="n">
+        <v>5238</v>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Amy Anson</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Caesar Salad with Homemade Brown Bread</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>4664</v>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Benjamin Howell</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>4992</v>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>Blanka Szulc</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>4710</v>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>EibhlIn Humphreys</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>5224</v>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>Emma Warren</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>5222</v>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>Fiona Mullen</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>5253</v>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>Jessica Carey</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>5253</v>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>Jessica Carey</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>Popcorn</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>4260</v>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Leo Carragher</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>4260</v>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Leo Carragher</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>Sweet Chiili Chicken Wrap</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>4525</v>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Lexi Reeves</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>4688</v>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Lucy Hoban</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>4563</v>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Matthew Moran</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Nadia Glod</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>Oven baked potato cubes</t>
+        </is>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>Nadia Glod</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>5228</v>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>Oisin Conlan</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>5044</v>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>Rachael Roberts</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>4504</v>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>Rian Munro</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>5152</v>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Ryan Crouch</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>5233</v>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Ryan O Connor</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>4701</v>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Sadbh Doyle</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
+        </is>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>4940</v>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Shonagh Purcell Tobin</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Caesar Salad with Homemade Brown Bread</t>
+        </is>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>5216</v>
+      </c>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>Stephany Gabrielly Pesqueira</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="inlineStr">
+        <is>
+          <t>Essence Lemon and Lime</t>
+        </is>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>5216</v>
+      </c>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>Stephany Gabrielly Pesqueira</t>
+        </is>
+      </c>
+      <c r="D46" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>4762</v>
+      </c>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>emma coburn</t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Caesar Salad with Homemade Brown Bread</t>
+        </is>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>5164</v>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>sophie morris</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>5242</v>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="C49" s="4" t="inlineStr">
         <is>
           <t>Callum casey</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="D49" s="4" t="inlineStr">
         <is>
           <t>Breaded Chicken Baguette</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="E49" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>4371</v>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="C50" s="4" t="inlineStr">
         <is>
           <t>Felipe Barreto</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="D50" s="4" t="inlineStr">
         <is>
           <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
-      <c r="D24" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+      <c r="E50" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>5056</v>
+      </c>
+      <c r="B51" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="C51" s="4" t="inlineStr">
         <is>
           <t>Harry Keegan</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="D51" s="4" t="inlineStr">
         <is>
           <t>Chicken Curry Madras</t>
         </is>
       </c>
-      <c r="D25" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
+      <c r="E51" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>4172</v>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="C52" s="4" t="inlineStr">
         <is>
           <t>Jake Coughlan</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="D52" s="4" t="inlineStr">
         <is>
           <t>Barbecue Pulled Pork Bap with crispy onions.</t>
         </is>
       </c>
-      <c r="D26" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
+      <c r="E52" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>4206</v>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="C53" s="4" t="inlineStr">
         <is>
           <t>Nathan Kozik</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="D53" s="4" t="inlineStr">
         <is>
           <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
-      <c r="D27" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="E53" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>4516</v>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="C54" s="4" t="inlineStr">
         <is>
           <t>Oliwier Wasik</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="D54" s="4" t="inlineStr">
         <is>
           <t>Chicken Curry Madras</t>
         </is>
       </c>
-      <c r="D28" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
+      <c r="E54" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>4390</v>
+      </c>
+      <c r="B55" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="C55" s="4" t="inlineStr">
         <is>
           <t>Ona Houlihan-Canestro</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="D55" s="4" t="inlineStr">
         <is>
           <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
-      <c r="D29" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>Amy Anson</t>
-        </is>
-      </c>
-      <c r="C30" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Caesar Salad with Homemade Brown Bread</t>
-        </is>
-      </c>
-      <c r="D30" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B31" s="4" t="inlineStr">
-        <is>
-          <t>Benjamin Howell</t>
-        </is>
-      </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="E55" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>5114</v>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>Aaron Wilson</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
         <is>
           <t>Barbecue Pulled Pork Bap with crispy onions.</t>
         </is>
       </c>
-      <c r="D31" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B32" s="4" t="inlineStr">
-        <is>
-          <t>Blanka Szulc</t>
-        </is>
-      </c>
-      <c r="C32" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D32" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>EibhlIn Humphreys</t>
-        </is>
-      </c>
-      <c r="C33" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D33" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>Emma Warren</t>
-        </is>
-      </c>
-      <c r="C34" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D34" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>Fiona Mullen</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B36" s="4" t="inlineStr">
-        <is>
-          <t>Jessica Carey</t>
-        </is>
-      </c>
-      <c r="C36" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D36" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>Jessica Carey</t>
-        </is>
-      </c>
-      <c r="C37" s="4" t="inlineStr">
-        <is>
-          <t>Popcorn</t>
-        </is>
-      </c>
-      <c r="D37" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>Leo Carragher</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="E56" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>Charlie munro</t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="inlineStr">
         <is>
           <t>Barbecue Pulled Pork Bap with crispy onions.</t>
         </is>
       </c>
-      <c r="D38" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>Leo Carragher</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>Sweet Chiili Chicken Wrap</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>Lexi Reeves</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="E57" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>5072</v>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>Jesse Redican</t>
+        </is>
+      </c>
+      <c r="D58" s="4" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="E58" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>5207</v>
+      </c>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>Ben Cahalan</t>
+        </is>
+      </c>
+      <c r="D59" s="4" t="inlineStr">
         <is>
           <t>Barbecue Pulled Pork Bap with crispy onions.</t>
         </is>
       </c>
-      <c r="D40" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B41" s="4" t="inlineStr">
-        <is>
-          <t>Lucy Hoban</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t>Matthew Moran</t>
-        </is>
-      </c>
-      <c r="C42" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D42" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B43" s="4" t="inlineStr">
-        <is>
-          <t>Nadia Glod</t>
-        </is>
-      </c>
-      <c r="C43" s="4" t="inlineStr">
-        <is>
-          <t>Oven baked potato cubes</t>
-        </is>
-      </c>
-      <c r="D43" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t>Nadia Glod</t>
-        </is>
-      </c>
-      <c r="C44" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D44" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B45" s="4" t="inlineStr">
-        <is>
-          <t>Oisin Conlan</t>
-        </is>
-      </c>
-      <c r="C45" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D45" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B46" s="4" t="inlineStr">
-        <is>
-          <t>Rachael Roberts</t>
-        </is>
-      </c>
-      <c r="C46" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D46" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B47" s="4" t="inlineStr">
-        <is>
-          <t>Rian Munro</t>
-        </is>
-      </c>
-      <c r="C47" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D47" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B48" s="4" t="inlineStr">
-        <is>
-          <t>Ryan Crouch</t>
-        </is>
-      </c>
-      <c r="C48" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D48" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>Ryan O Connor</t>
-        </is>
-      </c>
-      <c r="C49" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D49" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B50" s="4" t="inlineStr">
-        <is>
-          <t>Sadbh Doyle</t>
-        </is>
-      </c>
-      <c r="C50" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D50" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B51" s="4" t="inlineStr">
-        <is>
-          <t>Shonagh Purcell Tobin</t>
-        </is>
-      </c>
-      <c r="C51" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Caesar Salad with Homemade Brown Bread</t>
-        </is>
-      </c>
-      <c r="D51" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B52" s="4" t="inlineStr">
-        <is>
-          <t>Stephany Gabrielly Pesqueira</t>
-        </is>
-      </c>
-      <c r="C52" s="4" t="inlineStr">
-        <is>
-          <t>Essence Lemon and Lime</t>
-        </is>
-      </c>
-      <c r="D52" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B53" s="4" t="inlineStr">
-        <is>
-          <t>Stephany Gabrielly Pesqueira</t>
-        </is>
-      </c>
-      <c r="C53" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D53" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B54" s="4" t="inlineStr">
-        <is>
-          <t>emma coburn</t>
-        </is>
-      </c>
-      <c r="C54" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Caesar Salad with Homemade Brown Bread</t>
-        </is>
-      </c>
-      <c r="D54" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B55" s="4" t="inlineStr">
-        <is>
-          <t>sophie morris</t>
-        </is>
-      </c>
-      <c r="C55" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D55" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="inlineStr">
-        <is>
-          <t>6th</t>
-        </is>
-      </c>
-      <c r="B56" s="4" t="inlineStr">
-        <is>
-          <t>Charlie munro</t>
-        </is>
-      </c>
-      <c r="C56" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D56" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="3" t="inlineStr">
-        <is>
-          <t>6th</t>
-        </is>
-      </c>
-      <c r="B57" s="4" t="inlineStr">
-        <is>
-          <t>Jesse Redican</t>
-        </is>
-      </c>
-      <c r="C57" s="4" t="inlineStr">
-        <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
-        </is>
-      </c>
-      <c r="D57" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="3" t="inlineStr">
-        <is>
-          <t>5th</t>
-        </is>
-      </c>
-      <c r="B58" s="4" t="inlineStr">
-        <is>
-          <t>Aaron Wilson</t>
-        </is>
-      </c>
-      <c r="C58" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D58" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="3" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B59" s="4" t="inlineStr">
-        <is>
-          <t>Ben Cahalan</t>
-        </is>
-      </c>
-      <c r="C59" s="4" t="inlineStr">
-        <is>
-          <t>Barbecue Pulled Pork Bap with crispy onions.</t>
-        </is>
-      </c>
-      <c r="D59" s="4" t="n">
+      <c r="E59" s="4" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10676,7 +11093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10688,6 +11105,7 @@
     <col width="25" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10700,1288 +11118,1482 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>Order ID</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
           <t>Teacher/Class</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Student Name</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Menu Item</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="3" t="n">
+        <v>4780</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>Adam Szczepkowski</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="E3" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="3" t="n">
+        <v>4729</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Anna Vaughan</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Oven baked crispy potato wedges</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="E4" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="3" t="n">
+        <v>5196</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Arian Pluta Misini</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>Traditional Vegetable Soup With freshly baked roll</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="E5" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="3" t="n">
+        <v>4627</v>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>Ben McCormack</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="E6" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="3" t="n">
+        <v>3726</v>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Catherine Rojas</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="E7" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="3" t="n">
+        <v>5268</v>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>Cian O Brien</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="E8" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="3" t="n">
+        <v>5268</v>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Cian O Brien</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>Essence Strawberry and Raspberry</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="E9" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="3" t="n">
+        <v>4046</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>Donnacha Fitzsimons</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>Chicken Curry Madras</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="E10" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="3" t="n">
+        <v>4918</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>Emmie Murphy</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>Chicken Curry Madras</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="E11" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="3" t="n">
+        <v>5245</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Harry Kelly</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="E12" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="3" t="n">
+        <v>4869</v>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Jade Delahunt</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="E13" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="3" t="n">
+        <v>5151</v>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>Jaden Gilbride</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>Chicken Curry Madras</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="E14" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="3" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Jake Teeling</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="E15" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="3" t="n">
+        <v>5198</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Jake Teeling</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>Essence Strawberry and Raspberry</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="E16" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="3" t="n">
+        <v>5278</v>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Jamie Higgins</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="E17" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="3" t="n">
+        <v>5025</v>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>John Marco Diamat</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>Traditional Vegetable Soup</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="E18" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="A19" s="3" t="n">
+        <v>5296</v>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>Kayla Leahy</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>Chicken Curry Madras</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="E19" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="A20" s="3" t="n">
+        <v>4417</v>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>Noah Molyneaux</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>Breaded Chicken Baguette</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="E20" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="3" t="n">
+        <v>4776</v>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>Olaf Pala</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="E21" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="3" t="n">
+        <v>5274</v>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>Pola Szlachta</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="D22" s="4" t="inlineStr">
         <is>
           <t>Sweet Chiili Chicken Wrap</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="E22" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="3" t="n">
+        <v>5075</v>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>Rebecca Rattigan</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>Chicken Curry Madras</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="E23" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="3" t="n">
+        <v>5265</v>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>Riley Mulvaney</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>Breaded Chicken Baguette</t>
         </is>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="E24" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+      <c r="A25" s="3" t="n">
+        <v>5267</v>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>Rilé Murphy</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
         </is>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="E25" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="inlineStr">
+      <c r="A26" s="3" t="n">
+        <v>5273</v>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>Sean Ryan</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>Breaded Chicken Baguette</t>
         </is>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="E26" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr">
+      <c r="A27" s="3" t="n">
+        <v>5273</v>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>Sean Ryan</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr">
         <is>
           <t>Oven baked potato cubes</t>
         </is>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="E27" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="A28" s="3" t="n">
+        <v>4907</v>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>Wiktor Szadzinski</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="D28" s="4" t="inlineStr">
         <is>
           <t>Chicken Curry Madras</t>
         </is>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="E28" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="inlineStr">
+      <c r="A29" s="3" t="n">
+        <v>4665</v>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>Benjamin Howell</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>5290</v>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>Conor Morrin</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>4711</v>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>EibhlIn Humphreys</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>5223</v>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Emma Warren</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>5254</v>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Jessica Carey</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>5254</v>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Jessica Carey</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>Popcorn</t>
+        </is>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>4261</v>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Leo Carragher</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>4526</v>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Lexi Reeves</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>Meat Free Meatballs in Tomato and Basil Sauce</t>
+        </is>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>4689</v>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>Lucy Hoban</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>4562</v>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>Matthew Moran</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>5202</v>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>Nadia Glod</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>5286</v>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>Noah O'Brien</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>5045</v>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Rachael Roberts</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>Breaded Chicken Baguette</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>4505</v>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Rian Munro</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>4505</v>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Rian Munro</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>Essence Lemon and Lime</t>
+        </is>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>4702</v>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Sadbh Doyle</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>5217</v>
+      </c>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>Stephany Gabrielly Pesqueira</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="inlineStr">
+        <is>
+          <t>Essence Lemon and Lime</t>
+        </is>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>5217</v>
+      </c>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>Stephany Gabrielly Pesqueira</t>
+        </is>
+      </c>
+      <c r="D46" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>5282</v>
+      </c>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>emma coburn</t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>5300</v>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>kayleigh beatty</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup</t>
+        </is>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>5300</v>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>kayleigh beatty</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="E49" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>5165</v>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>sophie morris</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
+        </is>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>5298</v>
+      </c>
+      <c r="B51" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="C51" s="4" t="inlineStr">
         <is>
           <t>Callum casey</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="D51" s="4" t="inlineStr">
         <is>
           <t>Breaded Chicken Baguette</t>
         </is>
       </c>
-      <c r="D29" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="E51" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>4372</v>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="C52" s="4" t="inlineStr">
         <is>
           <t>Felipe Barreto</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="D52" s="4" t="inlineStr">
         <is>
           <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
-      <c r="D30" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr">
+      <c r="E52" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>5057</v>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="C53" s="4" t="inlineStr">
         <is>
           <t>Harry Keegan</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="D53" s="4" t="inlineStr">
         <is>
           <t>Chicken Curry Madras</t>
         </is>
       </c>
-      <c r="D31" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
+      <c r="E53" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>4173</v>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="C54" s="4" t="inlineStr">
         <is>
           <t>Jake Coughlan</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="D54" s="4" t="inlineStr">
         <is>
           <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
-      <c r="D32" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr">
+      <c r="E54" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>4207</v>
+      </c>
+      <c r="B55" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="C55" s="4" t="inlineStr">
         <is>
           <t>Nathan Kozik</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="D55" s="4" t="inlineStr">
         <is>
           <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
         </is>
       </c>
-      <c r="D33" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="E55" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>4515</v>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="C56" s="4" t="inlineStr">
         <is>
           <t>Oliwier Wasik</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="D56" s="4" t="inlineStr">
         <is>
           <t>Sweet Chiili Chicken Wrap</t>
         </is>
       </c>
-      <c r="D34" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="inlineStr">
+      <c r="E56" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>4391</v>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="C57" s="4" t="inlineStr">
         <is>
           <t>Ona Houlihan-Canestro</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="D57" s="4" t="inlineStr">
         <is>
           <t>Sweet Chiili Chicken Wrap</t>
         </is>
       </c>
-      <c r="D35" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B36" s="4" t="inlineStr">
-        <is>
-          <t>Benjamin Howell</t>
-        </is>
-      </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="E57" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>4574</v>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>Luke Reeves</t>
+        </is>
+      </c>
+      <c r="D58" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="E58" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>4574</v>
+      </c>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>Luke Reeves</t>
+        </is>
+      </c>
+      <c r="D59" s="4" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="E59" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>4305</v>
+      </c>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>Odhran Davy</t>
+        </is>
+      </c>
+      <c r="D60" s="4" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="E60" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t>Ross Chapman</t>
+        </is>
+      </c>
+      <c r="D61" s="4" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="E61" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n">
+        <v>5248</v>
+      </c>
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>Ross Chapman</t>
+        </is>
+      </c>
+      <c r="D62" s="4" t="inlineStr">
+        <is>
+          <t>Popcorn</t>
+        </is>
+      </c>
+      <c r="E62" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n">
+        <v>5115</v>
+      </c>
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t>Aaron Wilson</t>
+        </is>
+      </c>
+      <c r="D63" s="4" t="inlineStr">
+        <is>
+          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
+        </is>
+      </c>
+      <c r="E63" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>4501</v>
+      </c>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t>Charlie munro</t>
+        </is>
+      </c>
+      <c r="D64" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="E64" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n">
+        <v>5073</v>
+      </c>
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t>Jesse Redican</t>
+        </is>
+      </c>
+      <c r="D65" s="4" t="inlineStr">
         <is>
           <t>Chicken Curry Madras</t>
         </is>
       </c>
-      <c r="D36" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>Conor Morrin</t>
-        </is>
-      </c>
-      <c r="C37" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D37" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>EibhlIn Humphreys</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D38" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>Emma Warren</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>Jessica Carey</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D40" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B41" s="4" t="inlineStr">
-        <is>
-          <t>Jessica Carey</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>Popcorn</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t>Leo Carragher</t>
-        </is>
-      </c>
-      <c r="C42" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D42" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B43" s="4" t="inlineStr">
-        <is>
-          <t>Lexi Reeves</t>
-        </is>
-      </c>
-      <c r="C43" s="4" t="inlineStr">
-        <is>
-          <t>Meat Free Meatballs in Tomato and Basil Sauce</t>
-        </is>
-      </c>
-      <c r="D43" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t>Lucy Hoban</t>
-        </is>
-      </c>
-      <c r="C44" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D44" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B45" s="4" t="inlineStr">
-        <is>
-          <t>Matthew Moran</t>
-        </is>
-      </c>
-      <c r="C45" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D45" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B46" s="4" t="inlineStr">
-        <is>
-          <t>Nadia Glod</t>
-        </is>
-      </c>
-      <c r="C46" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D46" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B47" s="4" t="inlineStr">
-        <is>
-          <t>Noah O'Brien</t>
-        </is>
-      </c>
-      <c r="C47" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D47" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B48" s="4" t="inlineStr">
-        <is>
-          <t>Rachael Roberts</t>
-        </is>
-      </c>
-      <c r="C48" s="4" t="inlineStr">
-        <is>
-          <t>Breaded Chicken Baguette</t>
-        </is>
-      </c>
-      <c r="D48" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>Rian Munro</t>
-        </is>
-      </c>
-      <c r="C49" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D49" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B50" s="4" t="inlineStr">
-        <is>
-          <t>Rian Munro</t>
-        </is>
-      </c>
-      <c r="C50" s="4" t="inlineStr">
-        <is>
-          <t>Essence Lemon and Lime</t>
-        </is>
-      </c>
-      <c r="D50" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B51" s="4" t="inlineStr">
-        <is>
-          <t>Sadbh Doyle</t>
-        </is>
-      </c>
-      <c r="C51" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D51" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B52" s="4" t="inlineStr">
-        <is>
-          <t>Stephany Gabrielly Pesqueira</t>
-        </is>
-      </c>
-      <c r="C52" s="4" t="inlineStr">
-        <is>
-          <t>Essence Lemon and Lime</t>
-        </is>
-      </c>
-      <c r="D52" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B53" s="4" t="inlineStr">
-        <is>
-          <t>Stephany Gabrielly Pesqueira</t>
-        </is>
-      </c>
-      <c r="C53" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D53" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B54" s="4" t="inlineStr">
-        <is>
-          <t>emma coburn</t>
-        </is>
-      </c>
-      <c r="C54" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="D54" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B55" s="4" t="inlineStr">
-        <is>
-          <t>kayleigh beatty</t>
-        </is>
-      </c>
-      <c r="C55" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup</t>
-        </is>
-      </c>
-      <c r="D55" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B56" s="4" t="inlineStr">
-        <is>
-          <t>kayleigh beatty</t>
-        </is>
-      </c>
-      <c r="C56" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D56" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="3" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="B57" s="4" t="inlineStr">
-        <is>
-          <t>sophie morris</t>
-        </is>
-      </c>
-      <c r="C57" s="4" t="inlineStr">
-        <is>
-          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
-        </is>
-      </c>
-      <c r="D57" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B58" s="4" t="inlineStr">
-        <is>
-          <t>Luke Reeves</t>
-        </is>
-      </c>
-      <c r="C58" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="D58" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B59" s="4" t="inlineStr">
-        <is>
-          <t>Luke Reeves</t>
-        </is>
-      </c>
-      <c r="C59" s="4" t="inlineStr">
-        <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
-        </is>
-      </c>
-      <c r="D59" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B60" s="4" t="inlineStr">
-        <is>
-          <t>Odhran Davy</t>
-        </is>
-      </c>
-      <c r="C60" s="4" t="inlineStr">
-        <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
-        </is>
-      </c>
-      <c r="D60" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B61" s="4" t="inlineStr">
-        <is>
-          <t>Ross Chapman</t>
-        </is>
-      </c>
-      <c r="C61" s="4" t="inlineStr">
-        <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
-        </is>
-      </c>
-      <c r="D61" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="3" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="B62" s="4" t="inlineStr">
-        <is>
-          <t>Ross Chapman</t>
-        </is>
-      </c>
-      <c r="C62" s="4" t="inlineStr">
-        <is>
-          <t>Popcorn</t>
-        </is>
-      </c>
-      <c r="D62" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="inlineStr">
-        <is>
-          <t>6th</t>
-        </is>
-      </c>
-      <c r="B63" s="4" t="inlineStr">
-        <is>
-          <t>Charlie munro</t>
-        </is>
-      </c>
-      <c r="C63" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="D63" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="3" t="inlineStr">
-        <is>
-          <t>6th</t>
-        </is>
-      </c>
-      <c r="B64" s="4" t="inlineStr">
-        <is>
-          <t>Jesse Redican</t>
-        </is>
-      </c>
-      <c r="C64" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="D64" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="inlineStr">
-        <is>
-          <t>5th</t>
-        </is>
-      </c>
-      <c r="B65" s="4" t="inlineStr">
-        <is>
-          <t>Aaron Wilson</t>
-        </is>
-      </c>
-      <c r="C65" s="4" t="inlineStr">
-        <is>
-          <t>Sticky Asian Pulled Pork with Crunchy Vegetables</t>
-        </is>
-      </c>
-      <c r="D65" s="4" t="n">
+      <c r="E65" s="4" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -12663,7 +13275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12675,6 +13287,7 @@
     <col width="25" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12687,20 +13300,25 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>Order ID</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
           <t>Teacher/Class</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Student Name</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Menu Item</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
@@ -12715,11 +13333,12 @@
       <c r="B3" s="4" t="n"/>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
